--- a/bin/conf/store.xlsx
+++ b/bin/conf/store.xlsx
@@ -758,11 +758,19 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>2000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3000</t>
+    <t>525</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -770,15 +778,384 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>525</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
+    <t>2500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>900</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1200</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>韧鼓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>弗拉迪米尔的祭品</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅肯斯姆</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洞察烟斗</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>原力法杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>纷争面纱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>达贡之神力</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>EUL的神圣法杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿托斯之棍</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>水晶剑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>碎颅锤</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>狂战斧</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>挑战头巾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>刃甲</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>先锋盾</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>振魂石</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>黑皇杖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>西瓦的守护</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>疯狂面具</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>散华</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>夜叉</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>漩涡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>净魂之刃</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>黯灭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>19000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>21000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>40000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>47000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>17000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>31000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>35000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsSell</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>37000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+  </si>
+  <si>
+    <t>10001</t>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>16000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>22000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>32000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>38000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>14000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>20000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>27000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1600</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1900</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -786,384 +1163,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>3200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3800</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1400</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2700</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>900</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1200</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>1100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>韧鼓</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>弗拉迪米尔的祭品</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>梅肯斯姆</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>洞察烟斗</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>原力法杖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>纷争面纱</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>达贡之神力</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>EUL的神圣法杖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>阿托斯之棍</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>水晶剑</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>碎颅锤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>狂战斧</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>挑战头巾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>刃甲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>先锋盾</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>振魂石</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>黑皇杖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>西瓦的守护</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>疯狂面具</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>散华</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>夜叉</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>漩涡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>净魂之刃</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>黯灭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>16000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>19000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>22000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>30000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>20000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>27000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>21000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>40000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>47000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>17000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>31000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>35000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>160</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>190</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>220</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>170</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsSell</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>4000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>37000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Level</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10000</t>
-  </si>
-  <si>
-    <t>10001</t>
-  </si>
-  <si>
-    <t>10001</t>
+    <t>1700</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1570,10 +1570,10 @@
         <v>93</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1608,7 +1608,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>128</v>
@@ -1652,7 +1652,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>129</v>
@@ -1675,7 +1675,7 @@
         <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>129</v>
@@ -1698,7 +1698,7 @@
         <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>131</v>
@@ -1721,7 +1721,7 @@
         <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>130</v>
@@ -1744,7 +1744,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>132</v>
@@ -1767,7 +1767,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>132</v>
@@ -1790,7 +1790,7 @@
         <v>102</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>133</v>
@@ -1813,7 +1813,7 @@
         <v>103</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>134</v>
@@ -1836,7 +1836,7 @@
         <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>133</v>
@@ -1859,7 +1859,7 @@
         <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>135</v>
@@ -1882,7 +1882,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>136</v>
@@ -1905,7 +1905,7 @@
         <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>137</v>
@@ -1928,7 +1928,7 @@
         <v>107</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>138</v>
@@ -1951,7 +1951,7 @@
         <v>108</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>139</v>
@@ -1974,7 +1974,7 @@
         <v>109</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>140</v>
@@ -1997,7 +1997,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>141</v>
@@ -2020,7 +2020,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>142</v>
@@ -2043,7 +2043,7 @@
         <v>110</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>143</v>
@@ -2066,7 +2066,7 @@
         <v>111</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>144</v>
@@ -2089,7 +2089,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>145</v>
@@ -2112,7 +2112,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>146</v>
@@ -2135,7 +2135,7 @@
         <v>112</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>136</v>
@@ -2158,7 +2158,7 @@
         <v>113</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>136</v>
@@ -2181,7 +2181,7 @@
         <v>114</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>147</v>
@@ -2204,7 +2204,7 @@
         <v>115</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>139</v>
@@ -2227,7 +2227,7 @@
         <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>148</v>
@@ -2250,7 +2250,7 @@
         <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>149</v>
@@ -2273,10 +2273,10 @@
         <v>116</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>144</v>
+        <v>250</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -2296,7 +2296,7 @@
         <v>117</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>150</v>
@@ -2319,7 +2319,7 @@
         <v>118</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>151</v>
@@ -2342,7 +2342,7 @@
         <v>65</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>152</v>
@@ -2365,7 +2365,7 @@
         <v>66</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>153</v>
@@ -2388,10 +2388,10 @@
         <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2411,10 +2411,10 @@
         <v>71</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2434,10 +2434,10 @@
         <v>119</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2457,10 +2457,10 @@
         <v>120</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2480,7 +2480,7 @@
         <v>68</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>136</v>
@@ -2503,10 +2503,10 @@
         <v>69</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2526,10 +2526,10 @@
         <v>70</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2549,10 +2549,10 @@
         <v>121</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>141</v>
+        <v>251</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2572,10 +2572,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>159</v>
+        <v>252</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2595,10 +2595,10 @@
         <v>84</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2618,10 +2618,10 @@
         <v>85</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>161</v>
+        <v>254</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2641,10 +2641,10 @@
         <v>123</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>162</v>
+        <v>255</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2664,10 +2664,10 @@
         <v>86</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>163</v>
+        <v>256</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2687,10 +2687,10 @@
         <v>87</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>164</v>
+        <v>257</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2710,10 +2710,10 @@
         <v>88</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>165</v>
+        <v>258</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2733,10 +2733,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>166</v>
+        <v>259</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2756,10 +2756,10 @@
         <v>125</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>154</v>
+        <v>259</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2779,10 +2779,10 @@
         <v>126</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>169</v>
+        <v>260</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2802,10 +2802,10 @@
         <v>89</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2825,10 +2825,10 @@
         <v>127</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2848,10 +2848,10 @@
         <v>90</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2862,19 +2862,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2885,19 +2885,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2908,19 +2908,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2931,22 +2931,22 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G59">
         <v>1</v>
@@ -2954,19 +2954,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -2977,19 +2977,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>227</v>
+        <v>217</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -3000,19 +3000,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -3023,19 +3023,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -3046,19 +3046,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>228</v>
+        <v>218</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -3069,22 +3069,22 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C65" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F65">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G65">
         <v>1</v>
@@ -3092,19 +3092,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -3115,22 +3115,22 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C67" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="F67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G67">
         <v>1</v>
@@ -3138,19 +3138,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -3161,19 +3161,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C69" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>225</v>
+        <v>215</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -3184,19 +3184,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C70" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3207,19 +3207,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C71" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>226</v>
+        <v>216</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -3230,19 +3230,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C72" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -3253,19 +3253,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="C73" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -3276,19 +3276,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3299,19 +3299,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C75" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -3322,19 +3322,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3345,22 +3345,22 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="C77" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>258</v>
+        <v>243</v>
       </c>
       <c r="F77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G77">
         <v>1</v>
@@ -3368,22 +3368,22 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C78" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="F78">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G78" s="4">
         <v>1</v>
@@ -3391,22 +3391,22 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="C79" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="F79">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G79">
         <v>1</v>
@@ -3414,19 +3414,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>244</v>
+        <v>261</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3437,19 +3437,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>245</v>
+        <v>262</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -3460,19 +3460,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="D82" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="E82" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -3483,22 +3483,22 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F83">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G83">
         <v>1</v>
@@ -3506,16 +3506,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>133</v>
@@ -3529,19 +3529,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>133</v>
+        <v>261</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -3558,13 +3558,13 @@
         <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>136</v>
+        <v>158</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -3581,13 +3581,13 @@
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>259</v>
+        <v>244</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -3604,16 +3604,16 @@
         <v>61</v>
       </c>
       <c r="C88" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>260</v>
+        <v>245</v>
       </c>
       <c r="F88">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G88" s="4">
         <v>1</v>
@@ -3624,16 +3624,16 @@
         <v>74</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="C89" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -3647,19 +3647,19 @@
         <v>75</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="C90" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>257</v>
+        <v>242</v>
       </c>
       <c r="F90">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G90" s="4">
         <v>1</v>
@@ -3670,19 +3670,19 @@
         <v>76</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C91" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G91">
         <v>1</v>
@@ -3693,16 +3693,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="C92" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>247</v>
+        <v>264</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -3716,16 +3716,16 @@
         <v>78</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C93" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>256</v>
+        <v>158</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -3739,16 +3739,16 @@
         <v>79</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C94" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -3762,13 +3762,13 @@
         <v>80</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="C95" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>136</v>
@@ -3785,19 +3785,19 @@
         <v>81</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="C96" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="F96">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G96" s="4">
         <v>1</v>
@@ -3814,10 +3814,10 @@
         <v>67</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>45</v>
@@ -3837,10 +3837,10 @@
         <v>71</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>52</v>
@@ -3860,10 +3860,10 @@
         <v>122</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="F99">
         <v>1</v>

--- a/bin/conf/store.xlsx
+++ b/bin/conf/store.xlsx
@@ -738,58 +738,54 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>2250</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>515</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>525</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2500</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>900</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2250</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>515</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>515</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>515</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>525</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>800</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2500</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>900</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1200</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -1164,6 +1160,10 @@
   </si>
   <si>
     <t>1700</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5000</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="J86" sqref="J86"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="J85" sqref="J85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1570,10 +1570,10 @@
         <v>93</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -1608,7 +1608,7 @@
         <v>31</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>128</v>
@@ -1652,7 +1652,7 @@
         <v>32</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>129</v>
@@ -1675,7 +1675,7 @@
         <v>97</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>129</v>
@@ -1698,7 +1698,7 @@
         <v>98</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>131</v>
@@ -1721,7 +1721,7 @@
         <v>99</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>130</v>
@@ -1744,7 +1744,7 @@
         <v>100</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>132</v>
@@ -1767,7 +1767,7 @@
         <v>101</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>132</v>
@@ -1790,7 +1790,7 @@
         <v>102</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>133</v>
@@ -1813,7 +1813,7 @@
         <v>103</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>134</v>
@@ -1836,7 +1836,7 @@
         <v>104</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>133</v>
@@ -1859,7 +1859,7 @@
         <v>105</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>135</v>
@@ -1882,7 +1882,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>136</v>
@@ -1905,7 +1905,7 @@
         <v>106</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>137</v>
@@ -1928,7 +1928,7 @@
         <v>107</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>138</v>
@@ -1951,7 +1951,7 @@
         <v>108</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>139</v>
@@ -1974,7 +1974,7 @@
         <v>109</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>140</v>
@@ -1997,7 +1997,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>141</v>
@@ -2020,7 +2020,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>142</v>
@@ -2043,7 +2043,7 @@
         <v>110</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>143</v>
@@ -2066,7 +2066,7 @@
         <v>111</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>144</v>
@@ -2089,7 +2089,7 @@
         <v>36</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>145</v>
@@ -2112,7 +2112,7 @@
         <v>37</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>146</v>
@@ -2135,7 +2135,7 @@
         <v>112</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>136</v>
@@ -2158,7 +2158,7 @@
         <v>113</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>136</v>
@@ -2181,7 +2181,7 @@
         <v>114</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>147</v>
@@ -2204,7 +2204,7 @@
         <v>115</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>139</v>
@@ -2227,7 +2227,7 @@
         <v>38</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>148</v>
@@ -2250,10 +2250,10 @@
         <v>39</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>149</v>
+        <v>264</v>
       </c>
       <c r="F29">
         <v>1</v>
@@ -2273,10 +2273,10 @@
         <v>116</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -2296,10 +2296,10 @@
         <v>117</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -2319,10 +2319,10 @@
         <v>118</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F32">
         <v>1</v>
@@ -2342,10 +2342,10 @@
         <v>65</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F33">
         <v>1</v>
@@ -2365,10 +2365,10 @@
         <v>66</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F34">
         <v>1</v>
@@ -2388,10 +2388,10 @@
         <v>67</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F35">
         <v>1</v>
@@ -2411,10 +2411,10 @@
         <v>71</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F36">
         <v>1</v>
@@ -2434,10 +2434,10 @@
         <v>119</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F37">
         <v>1</v>
@@ -2457,10 +2457,10 @@
         <v>120</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F38">
         <v>1</v>
@@ -2480,7 +2480,7 @@
         <v>68</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>136</v>
@@ -2503,10 +2503,10 @@
         <v>69</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F40">
         <v>1</v>
@@ -2526,10 +2526,10 @@
         <v>70</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F41">
         <v>1</v>
@@ -2549,10 +2549,10 @@
         <v>121</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="F42">
         <v>1</v>
@@ -2572,10 +2572,10 @@
         <v>122</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F43">
         <v>1</v>
@@ -2595,10 +2595,10 @@
         <v>84</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F44">
         <v>1</v>
@@ -2618,10 +2618,10 @@
         <v>85</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -2641,10 +2641,10 @@
         <v>123</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F46">
         <v>1</v>
@@ -2664,10 +2664,10 @@
         <v>86</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F47">
         <v>1</v>
@@ -2687,10 +2687,10 @@
         <v>87</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -2710,10 +2710,10 @@
         <v>88</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="F49">
         <v>1</v>
@@ -2733,10 +2733,10 @@
         <v>124</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F50">
         <v>1</v>
@@ -2756,10 +2756,10 @@
         <v>125</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="F51">
         <v>1</v>
@@ -2779,10 +2779,10 @@
         <v>126</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F52">
         <v>1</v>
@@ -2802,10 +2802,10 @@
         <v>89</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F53">
         <v>1</v>
@@ -2825,10 +2825,10 @@
         <v>127</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="F54">
         <v>1</v>
@@ -2848,10 +2848,10 @@
         <v>90</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F55">
         <v>1</v>
@@ -2862,19 +2862,19 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A56" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C56" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F56">
         <v>1</v>
@@ -2885,19 +2885,19 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A57" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C57" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="F57">
         <v>1</v>
@@ -2908,19 +2908,19 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F58">
         <v>1</v>
@@ -2931,19 +2931,19 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C59" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F59">
         <v>2</v>
@@ -2954,19 +2954,19 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A60" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F60">
         <v>2</v>
@@ -2977,19 +2977,19 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A61" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C61" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F61">
         <v>2</v>
@@ -3000,19 +3000,19 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A62" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C62" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F62">
         <v>2</v>
@@ -3023,19 +3023,19 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A63" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C63" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F63">
         <v>2</v>
@@ -3046,19 +3046,19 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A64" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="F64">
         <v>2</v>
@@ -3069,19 +3069,19 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A65" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C65" t="s">
         <v>173</v>
       </c>
-      <c r="C65" t="s">
-        <v>174</v>
-      </c>
       <c r="D65" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F65">
         <v>2</v>
@@ -3092,19 +3092,19 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A66" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B66" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C66" t="s">
         <v>175</v>
       </c>
-      <c r="C66" t="s">
-        <v>176</v>
-      </c>
       <c r="D66" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F66">
         <v>2</v>
@@ -3115,19 +3115,19 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A67" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C67" t="s">
         <v>177</v>
       </c>
-      <c r="C67" t="s">
-        <v>178</v>
-      </c>
       <c r="D67" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="F67">
         <v>2</v>
@@ -3138,19 +3138,19 @@
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A68" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C68" t="s">
         <v>179</v>
       </c>
-      <c r="C68" t="s">
-        <v>180</v>
-      </c>
       <c r="D68" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="F68">
         <v>1</v>
@@ -3161,19 +3161,19 @@
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A69" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B69" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C69" t="s">
         <v>181</v>
       </c>
-      <c r="C69" t="s">
-        <v>182</v>
-      </c>
       <c r="D69" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F69">
         <v>1</v>
@@ -3184,19 +3184,19 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A70" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" t="s">
         <v>183</v>
       </c>
-      <c r="C70" t="s">
-        <v>184</v>
-      </c>
       <c r="D70" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="F70">
         <v>1</v>
@@ -3207,19 +3207,19 @@
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A71" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B71" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C71" t="s">
         <v>185</v>
       </c>
-      <c r="C71" t="s">
-        <v>186</v>
-      </c>
       <c r="D71" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F71">
         <v>1</v>
@@ -3230,19 +3230,19 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A72" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B72" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C72" t="s">
         <v>187</v>
       </c>
-      <c r="C72" t="s">
-        <v>188</v>
-      </c>
       <c r="D72" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="F72">
         <v>2</v>
@@ -3253,19 +3253,19 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A73" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B73" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C73" t="s">
         <v>189</v>
       </c>
-      <c r="C73" t="s">
-        <v>190</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F73">
         <v>2</v>
@@ -3276,19 +3276,19 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A74" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B74" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" t="s">
         <v>191</v>
       </c>
-      <c r="C74" t="s">
-        <v>192</v>
-      </c>
       <c r="D74" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F74">
         <v>1</v>
@@ -3299,19 +3299,19 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A75" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B75" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C75" t="s">
         <v>193</v>
       </c>
-      <c r="C75" t="s">
-        <v>194</v>
-      </c>
       <c r="D75" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F75">
         <v>1</v>
@@ -3322,19 +3322,19 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A76" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B76" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C76" t="s">
         <v>195</v>
       </c>
-      <c r="C76" t="s">
-        <v>196</v>
-      </c>
       <c r="D76" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F76">
         <v>1</v>
@@ -3345,19 +3345,19 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A77" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B77" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C77" t="s">
         <v>197</v>
       </c>
-      <c r="C77" t="s">
-        <v>198</v>
-      </c>
       <c r="D77" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="F77">
         <v>2</v>
@@ -3368,19 +3368,19 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A78" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B78" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C78" t="s">
         <v>199</v>
       </c>
-      <c r="C78" t="s">
-        <v>200</v>
-      </c>
       <c r="D78" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="F78">
         <v>2</v>
@@ -3391,19 +3391,19 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A79" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B79" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C79" t="s">
         <v>201</v>
       </c>
-      <c r="C79" t="s">
-        <v>202</v>
-      </c>
       <c r="D79" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F79">
         <v>2</v>
@@ -3414,19 +3414,19 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A80" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -3437,19 +3437,19 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A81" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C81" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="F81">
         <v>1</v>
@@ -3460,19 +3460,19 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A82" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C82" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F82">
         <v>1</v>
@@ -3483,19 +3483,19 @@
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A83" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C83" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F83">
         <v>2</v>
@@ -3506,16 +3506,16 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A84" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C84" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>133</v>
@@ -3529,19 +3529,19 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A85" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C85" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F85">
         <v>1</v>
@@ -3558,13 +3558,13 @@
         <v>59</v>
       </c>
       <c r="C86" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F86">
         <v>1</v>
@@ -3581,13 +3581,13 @@
         <v>60</v>
       </c>
       <c r="C87" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F87">
         <v>2</v>
@@ -3604,13 +3604,13 @@
         <v>61</v>
       </c>
       <c r="C88" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F88">
         <v>2</v>
@@ -3624,16 +3624,16 @@
         <v>74</v>
       </c>
       <c r="B89" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C89" t="s">
         <v>173</v>
       </c>
-      <c r="C89" t="s">
-        <v>174</v>
-      </c>
       <c r="D89" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F89">
         <v>1</v>
@@ -3647,16 +3647,16 @@
         <v>75</v>
       </c>
       <c r="B90" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C90" t="s">
         <v>175</v>
       </c>
-      <c r="C90" t="s">
-        <v>176</v>
-      </c>
       <c r="D90" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F90">
         <v>2</v>
@@ -3670,16 +3670,16 @@
         <v>76</v>
       </c>
       <c r="B91" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C91" t="s">
         <v>177</v>
       </c>
-      <c r="C91" t="s">
-        <v>178</v>
-      </c>
       <c r="D91" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F91">
         <v>2</v>
@@ -3693,16 +3693,16 @@
         <v>77</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="C92" t="s">
         <v>179</v>
       </c>
-      <c r="C92" t="s">
-        <v>180</v>
-      </c>
       <c r="D92" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F92">
         <v>1</v>
@@ -3716,16 +3716,16 @@
         <v>78</v>
       </c>
       <c r="B93" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C93" t="s">
         <v>181</v>
       </c>
-      <c r="C93" t="s">
-        <v>182</v>
-      </c>
       <c r="D93" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F93">
         <v>1</v>
@@ -3739,16 +3739,16 @@
         <v>79</v>
       </c>
       <c r="B94" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C94" t="s">
         <v>183</v>
       </c>
-      <c r="C94" t="s">
-        <v>184</v>
-      </c>
       <c r="D94" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F94">
         <v>1</v>
@@ -3762,13 +3762,13 @@
         <v>80</v>
       </c>
       <c r="B95" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C95" t="s">
         <v>185</v>
       </c>
-      <c r="C95" t="s">
-        <v>186</v>
-      </c>
       <c r="D95" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>136</v>
@@ -3785,16 +3785,16 @@
         <v>81</v>
       </c>
       <c r="B96" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C96" t="s">
         <v>187</v>
       </c>
-      <c r="C96" t="s">
-        <v>188</v>
-      </c>
       <c r="D96" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="F96">
         <v>2</v>
@@ -3814,10 +3814,10 @@
         <v>67</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F97">
         <v>1</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A98" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B98" s="2" t="s">
         <v>45</v>
@@ -3837,10 +3837,10 @@
         <v>71</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="F98">
         <v>1</v>
@@ -3851,7 +3851,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A99" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B99" s="2" t="s">
         <v>52</v>
@@ -3860,10 +3860,10 @@
         <v>122</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F99">
         <v>1</v>

--- a/bin/conf/store.xlsx
+++ b/bin/conf/store.xlsx
@@ -1541,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AB99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="J85" sqref="J85"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2877,7 +2877,7 @@
         <v>249</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G56" s="4">
         <v>1</v>
@@ -2900,7 +2900,7 @@
         <v>213</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G57">
         <v>1</v>
@@ -2923,7 +2923,7 @@
         <v>214</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G58" s="4">
         <v>1</v>
@@ -3153,7 +3153,7 @@
         <v>221</v>
       </c>
       <c r="F68">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G68" s="4">
         <v>1</v>
@@ -3176,7 +3176,7 @@
         <v>214</v>
       </c>
       <c r="F69">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G69">
         <v>1</v>
@@ -3199,7 +3199,7 @@
         <v>218</v>
       </c>
       <c r="F70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G70" s="4">
         <v>1</v>
